--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220427_110229.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220427_110229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="271">
   <si>
     <t>사이트</t>
   </si>
@@ -806,6 +806,9 @@
   </si>
   <si>
     <t>FNC</t>
+  </si>
+  <si>
+    <t>마크툽컴퍼니</t>
   </si>
   <si>
     <t>WM</t>
@@ -2818,6 +2821,12 @@
       <c r="F63" t="s">
         <v>71</v>
       </c>
+      <c r="G63" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
@@ -3072,6 +3081,12 @@
       <c r="F73" t="s">
         <v>216</v>
       </c>
+      <c r="G73" t="s">
+        <v>264</v>
+      </c>
+      <c r="H73" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" t="s">
@@ -3119,7 +3134,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H75" t="s">
         <v>244</v>
@@ -3249,7 +3264,7 @@
         <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H80" t="s">
         <v>244</v>
@@ -3405,7 +3420,7 @@
         <v>225</v>
       </c>
       <c r="G86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3430,6 +3445,12 @@
       <c r="F87" t="s">
         <v>226</v>
       </c>
+      <c r="G87" t="s">
+        <v>264</v>
+      </c>
+      <c r="H87" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" t="s">
@@ -3451,7 +3472,7 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
@@ -3685,7 +3706,7 @@
         <v>232</v>
       </c>
       <c r="G97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="H97" t="s">
         <v>244</v>
@@ -3737,7 +3758,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220427_110229.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220427_110229.xlsx
@@ -40,7 +40,7 @@
     <t>소속사_분류</t>
   </si>
   <si>
-    <t>genie</t>
+    <t>Genie</t>
   </si>
   <si>
     <t>2022-04-27</t>

--- a/Crawling/music/crawled_data/mod_genie/live_genie_20220427_110229.xlsx
+++ b/Crawling/music/crawled_data/mod_genie/live_genie_20220427_110229.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="270">
   <si>
     <t>사이트</t>
   </si>
@@ -791,9 +791,6 @@
   </si>
   <si>
     <t>HIGH UP</t>
-  </si>
-  <si>
-    <t>개인</t>
   </si>
   <si>
     <t>YUE HUA</t>
@@ -2510,7 +2507,7 @@
         <v>59</v>
       </c>
       <c r="G51" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H51" t="s">
         <v>244</v>
@@ -2536,7 +2533,7 @@
         <v>200</v>
       </c>
       <c r="G52" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H52" t="s">
         <v>244</v>
@@ -2562,7 +2559,7 @@
         <v>201</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H53" t="s">
         <v>244</v>
@@ -2744,7 +2741,7 @@
         <v>206</v>
       </c>
       <c r="G60" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H60" t="s">
         <v>244</v>
@@ -2900,7 +2897,7 @@
         <v>211</v>
       </c>
       <c r="G66" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H66" t="s">
         <v>244</v>
@@ -3004,7 +3001,7 @@
         <v>78</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H70" t="s">
         <v>244</v>
@@ -3082,7 +3079,7 @@
         <v>216</v>
       </c>
       <c r="G73" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H73" t="s">
         <v>244</v>
@@ -3134,7 +3131,7 @@
         <v>83</v>
       </c>
       <c r="G75" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H75" t="s">
         <v>244</v>
@@ -3212,7 +3209,7 @@
         <v>219</v>
       </c>
       <c r="G78" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H78" t="s">
         <v>244</v>
@@ -3238,7 +3235,7 @@
         <v>220</v>
       </c>
       <c r="G79" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H79" t="s">
         <v>244</v>
@@ -3264,7 +3261,7 @@
         <v>221</v>
       </c>
       <c r="G80" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H80" t="s">
         <v>244</v>
@@ -3342,7 +3339,7 @@
         <v>193</v>
       </c>
       <c r="G83" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="H83" t="s">
         <v>244</v>
@@ -3420,7 +3417,7 @@
         <v>225</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H86" t="s">
         <v>244</v>
@@ -3446,7 +3443,7 @@
         <v>226</v>
       </c>
       <c r="G87" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H87" t="s">
         <v>244</v>
@@ -3472,7 +3469,7 @@
         <v>96</v>
       </c>
       <c r="G88" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H88" t="s">
         <v>244</v>
@@ -3706,7 +3703,7 @@
         <v>232</v>
       </c>
       <c r="G97" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H97" t="s">
         <v>244</v>
@@ -3758,7 +3755,7 @@
         <v>107</v>
       </c>
       <c r="G99" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H99" t="s">
         <v>244</v>
@@ -3810,7 +3807,7 @@
         <v>234</v>
       </c>
       <c r="G101" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H101" t="s">
         <v>244</v>
